--- a/reports/portfolio-2025-04-26.xlsx
+++ b/reports/portfolio-2025-04-26.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -776,34 +776,34 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>165661032448</v>
+        <v>169310289920</v>
       </c>
       <c r="I2" t="n">
-        <v>169764945920</v>
+        <v>171781554176</v>
       </c>
       <c r="J2" t="n">
-        <v>584001855</v>
+        <v>584025304</v>
       </c>
       <c r="K2" t="n">
         <v>586224000</v>
       </c>
       <c r="L2" t="n">
-        <v>19.06</v>
+        <v>19.49</v>
       </c>
       <c r="M2" t="n">
-        <v>20.48</v>
+        <v>20.93</v>
       </c>
       <c r="N2" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="O2" t="n">
-        <v>5.72</v>
+        <v>5.85</v>
       </c>
       <c r="P2" t="n">
-        <v>14.67</v>
+        <v>14.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="R2" t="n">
         <v>0.1498</v>
@@ -830,7 +830,7 @@
         <v>0.184</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.83</v>
+        <v>14.82</v>
       </c>
       <c r="AA2" t="n">
         <v>13.8</v>
@@ -866,7 +866,7 @@
         <v>16026999808</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0172</v>
+        <v>0.0171</v>
       </c>
       <c r="AM2" t="n">
         <v>0.049</v>
@@ -878,13 +878,13 @@
         <v>0.3304</v>
       </c>
       <c r="AP2" t="n">
-        <v>282.59</v>
+        <v>288.82</v>
       </c>
       <c r="AQ2" t="n">
-        <v>293.88</v>
+        <v>294.88</v>
       </c>
       <c r="AR2" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AS2" t="n">
         <v>183</v>
@@ -907,10 +907,10 @@
         <v>201.34</v>
       </c>
       <c r="AY2" t="n">
-        <v>276.14</v>
+        <v>276.07</v>
       </c>
       <c r="AZ2" t="n">
-        <v>254.98</v>
+        <v>256.33</v>
       </c>
       <c r="BA2" t="n">
         <v>1.7</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>236290703360</v>
+        <v>250158039040</v>
       </c>
       <c r="I3" t="n">
-        <v>237156466688</v>
+        <v>255093096448</v>
       </c>
       <c r="J3" t="n">
         <v>1062600970</v>
@@ -980,22 +980,22 @@
         <v>1066390016</v>
       </c>
       <c r="L3" t="n">
-        <v>34.89</v>
+        <v>36.94</v>
       </c>
       <c r="M3" t="n">
-        <v>42.29</v>
+        <v>44.77</v>
       </c>
       <c r="N3" t="n">
-        <v>5.95</v>
+        <v>6.3</v>
       </c>
       <c r="O3" t="n">
-        <v>12.27</v>
+        <v>12.99</v>
       </c>
       <c r="P3" t="n">
-        <v>24.3</v>
+        <v>26.13</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.98</v>
+        <v>6.43</v>
       </c>
       <c r="R3" t="n">
         <v>0.3188</v>
@@ -1058,7 +1058,7 @@
         <v>5224999936</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0067</v>
+        <v>0.0062</v>
       </c>
       <c r="AM3" t="n">
         <v>0.0144</v>
@@ -1070,10 +1070,10 @@
         <v>0.2334</v>
       </c>
       <c r="AP3" t="n">
-        <v>221.58</v>
+        <v>234.58</v>
       </c>
       <c r="AQ3" t="n">
-        <v>223.74</v>
+        <v>226.9</v>
       </c>
       <c r="AR3" t="n">
         <v>261</v>
@@ -1093,16 +1093,16 @@
         <v>1.31</v>
       </c>
       <c r="AW3" t="n">
-        <v>223.54</v>
+        <v>234.67</v>
       </c>
       <c r="AX3" t="n">
         <v>150.2</v>
       </c>
       <c r="AY3" t="n">
-        <v>196.84</v>
+        <v>198.98</v>
       </c>
       <c r="AZ3" t="n">
-        <v>184.73</v>
+        <v>185.9</v>
       </c>
       <c r="BA3" t="n">
         <v>1.56</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1160,97 +1160,97 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>767125291008</v>
+        <v>785687379968</v>
       </c>
       <c r="I4" t="n">
-        <v>835385163776</v>
+        <v>851749634048</v>
       </c>
       <c r="J4" t="n">
-        <v>4349220992</v>
+        <v>4346047610</v>
       </c>
       <c r="K4" t="n">
         <v>8000889856</v>
       </c>
       <c r="L4" t="n">
-        <v>39.78</v>
+        <v>41.97</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25</v>
+        <v>36.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="O4" t="n">
-        <v>8.449999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>19.79</v>
+        <v>20.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2485</v>
+        <v>0.2488</v>
       </c>
       <c r="S4" t="n">
         <v>0.062</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0413</v>
+        <v>0.0431</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0285</v>
+        <v>0.0275</v>
       </c>
       <c r="V4" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="W4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>680984969216</v>
+        <v>685086015488</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.041</v>
+        <v>0.025</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.41</v>
+        <v>2.34</v>
       </c>
       <c r="AA4" t="n">
         <v>2.72</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.023</v>
+        <v>-0.111</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.044</v>
+        <v>-0.121</v>
       </c>
       <c r="AD4" t="n">
-        <v>9036999680</v>
+        <v>9310999552</v>
       </c>
       <c r="AE4" t="n">
-        <v>62113001472</v>
+        <v>67205001216</v>
       </c>
       <c r="AF4" t="n">
-        <v>63.58</v>
+        <v>74.14</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.34</v>
+        <v>10.46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7864625152</v>
+        <v>9801124864</v>
       </c>
       <c r="AK4" t="n">
-        <v>36443000832</v>
+        <v>37604999168</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0097</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="AM4" t="n">
         <v>0.0093999999999999</v>
@@ -1259,19 +1259,19 @@
         <v>0.0143</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.3444</v>
+        <v>0.3665</v>
       </c>
       <c r="AP4" t="n">
-        <v>95.88</v>
+        <v>98.2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>107.33</v>
+        <v>107.88</v>
       </c>
       <c r="AR4" t="n">
         <v>120</v>
       </c>
       <c r="AS4" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
@@ -1288,13 +1288,13 @@
         <v>105.3</v>
       </c>
       <c r="AX4" t="n">
-        <v>59.44</v>
+        <v>63.87</v>
       </c>
       <c r="AY4" t="n">
-        <v>91.17</v>
+        <v>91.25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>87.01000000000001</v>
+        <v>87.55</v>
       </c>
       <c r="BA4" t="n">
         <v>1.95</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1352,34 +1352,34 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>269487702016</v>
+        <v>278633742336</v>
       </c>
       <c r="I5" t="n">
-        <v>379152826368</v>
+        <v>385216118784</v>
       </c>
       <c r="J5" t="n">
-        <v>452134242</v>
+        <v>1041100974</v>
       </c>
       <c r="K5" t="n">
         <v>1135449984</v>
       </c>
       <c r="L5" t="n">
-        <v>23.18</v>
+        <v>23.96</v>
       </c>
       <c r="M5" t="n">
-        <v>22.24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="n">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="O5" t="n">
-        <v>4.42</v>
+        <v>4.57</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.58</v>
+        <v>4.66</v>
       </c>
       <c r="R5" t="n">
         <v>0.6385</v>
@@ -1442,7 +1442,7 @@
         <v>24056000512</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0144</v>
+        <v>0.0145</v>
       </c>
       <c r="AM5" t="n">
         <v>0.0352</v>
@@ -1454,7 +1454,7 @@
         <v>0.2988</v>
       </c>
       <c r="AP5" t="n">
-        <v>237.34</v>
+        <v>245.4</v>
       </c>
       <c r="AQ5" t="n">
         <v>269.57</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="AU5" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AV5" t="n">
         <v>0.68</v>
@@ -1480,13 +1480,13 @@
         <v>276.49</v>
       </c>
       <c r="AX5" t="n">
-        <v>161.72</v>
+        <v>163.15</v>
       </c>
       <c r="AY5" t="n">
-        <v>256.61</v>
+        <v>254.46</v>
       </c>
       <c r="AZ5" t="n">
-        <v>229.37</v>
+        <v>230.63</v>
       </c>
       <c r="BA5" t="n">
         <v>2.29</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1544,34 +1544,34 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3180279627776</v>
+        <v>3116055920640</v>
       </c>
       <c r="I6" t="n">
-        <v>3198010785792</v>
+        <v>3205030477824</v>
       </c>
       <c r="J6" t="n">
-        <v>14911779320</v>
+        <v>14911480604</v>
       </c>
       <c r="K6" t="n">
         <v>14935799808</v>
       </c>
       <c r="L6" t="n">
-        <v>33.12</v>
+        <v>32.5</v>
       </c>
       <c r="M6" t="n">
-        <v>25.62</v>
+        <v>25.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7.94</v>
+        <v>7.78</v>
       </c>
       <c r="O6" t="n">
-        <v>47.62</v>
+        <v>46.66</v>
       </c>
       <c r="P6" t="n">
-        <v>23.03</v>
+        <v>23.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.99</v>
+        <v>8.01</v>
       </c>
       <c r="R6" t="n">
         <v>0.4663</v>
@@ -1598,7 +1598,7 @@
         <v>0.051</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.43</v>
+        <v>6.42</v>
       </c>
       <c r="AA6" t="n">
         <v>8.31</v>
@@ -1634,7 +1634,7 @@
         <v>109555998720</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0052</v>
+        <v>0.0049</v>
       </c>
       <c r="AM6" t="n">
         <v>0.0104</v>
@@ -1646,7 +1646,7 @@
         <v>0.1558</v>
       </c>
       <c r="AP6" t="n">
-        <v>212.93</v>
+        <v>208.63</v>
       </c>
       <c r="AQ6" t="n">
         <v>229.61</v>
@@ -1675,10 +1675,10 @@
         <v>169.21</v>
       </c>
       <c r="AY6" t="n">
-        <v>210.42</v>
+        <v>208.47</v>
       </c>
       <c r="AZ6" t="n">
-        <v>226.37</v>
+        <v>226.24</v>
       </c>
       <c r="BA6" t="n">
         <v>1.43</v>
